--- a/500all/speech_level/speeches_CHRG-114hhrg23564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412488</t>
   </si>
   <si>
-    <t>Sean P. Duffy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Duffy. The Subcommittee on Oversight and Investigations is called to order.    The subject of today's hearing, as evidenced by the rapidly changing graphic on the screens around us, is, ``Unsustainable Federal Spending and the Debt Limit.''    We have a series of votes coming up, so we will proceed with our first panel of witnesses. Welcome to the Honorable Tom McClintock, who represents the 4th Congressional District in California. Next, we have the Honorable Mark Pocan, who represents one of the great States, if not the greatest State, Wisconsin, from the 2nd Congressional District.    With that, Mr. McClintock, you are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>McClintock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McClintock. Thank you, Mr. Chairman.    Our government's good credit is vital to everything that we do here. And there are two ways to wreck that credit: by borrowing too much; or by failing to pay it back on time and in full.    Congress alone has the constitutional power to tax, to borrow, and to spend. We regulate our borrowing through the debt limit. And when we need to increase it, we have a duty to review and revise the policies that are driving it.    The United States now staggers under $19 trillion of debt, nearly half of it run up in the last 8 years. The interest on that debt is the fastest-growing component of the Federal budget. Within 5 years, it will consume more than we now spend for our entire defense establishment. That is why we dare not increase the debt without also correcting what is causing it.    But that can often lead to temporary impasses. And when that happens, it is vital that credit markets maintain supreme confidence in the security of their loans, otherwise the interest rates that lenders charge us would quickly rise to account for the increased risk, and our precarious budget situation would rapidly spin out of control.    The organic law that established the Treasury Department in 1789 specifically says that it shall be the duty of the Secretary of the Treasury to digest and prepare plans for the improvement and management of the revenue and for the support of the public credit.    ``Manage the revenue and support the public credit:'' the GAO clearly spelled out what that means in answering the Senate Finance Committee in 1985: ``Treasury is free to liquidate obligations in any order it finds will best serve the interests of the United States.''    The Constitution commands that the public debt is not to be questioned, and this is the practical mechanism for it. Most State constitutions provide that first call on any revenues is to maintain and protect their sovereign credit.    Now, that brings us to the fine point of the matter. In recent years, the Treasury Department has denied that it has either the ability or the authority to do so. Well, we now know from documents that were recently uncovered by this committee that this was a deliberate and calculated lie told to increase political pressure on Congress. We also know the Treasury Department was actually preparing contingency plans to prioritize debt at the same time the Treasury Secretary was publicly denying that he could.    These documents also reveal that Federal Reserve officials were incredulous and appalled that the Administration would make such statements because they ran a severe risk of panicking credit markets.    In 2001, I first introduced legislation to place an affirmative duty on the Treasury Department to provide first claim on any revenues for debt service. Ironically, the same Treasury Secretary who claimed he lacked legal authority opposed this bill that explicitly gave him that legal authority.    In response to his untruthful claim that it wasn't possible, we amended my bill in 2013 simply to allow the Treasury Secretary to borrow above the debt limit to guarantee that the debt would be paid in full and on time without having to prioritize. It passed the House in 2013, and again last year.    Opponents argued that this put creditors, like China, ahead of paying troops in the field. Actually, most of our debt is owed to Americans, and without our credit we can't pay our troops or anybody else. By protecting our credit first, we actually support and maintain our ability to pay for all of our other obligations.    Now, the President said this was tantamount to a family saying it would make its house payment, but not its car payment. Both are bad, but let us continue this analogy. If the family is living on its credit cards, as we are as a Nation, it had better make the minimum payments on its credit card first or it won't be able to pay the rest of its bills. And when that family has to increase its credit limit because it is spending above its means, it had better have a serious conversation about what is driving that debt and what to do about it.    Principled disputes over how the debt limit is addressed are going to happen from time to time. And just a few years ago, then-Senator Barack Obama vigorously opposed an increase in the debt limit sought by the Bush Administration. When these controversies erupt, as they inevitably do in a free society, it is imperative that credit markets are supremely confident that their loans to the United States are secure.    Thank you.    [The prepared statement of Representative McClintock can be found on page 57 of the appendix.]</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t xml:space="preserve">    Chairman Duffy. The subcommittee will reconvene.    Just to be clear, without objection, the witnesses' written statements will be made a part of the record. And once the witnesses of the first panel have finished presenting their testimony, the chairman and the ranking member will each have 5 minutes to ask questions.    So with that, we will now go to the gentleman from the great State of Wisconsin, Mr. Pocan, for 5 minutes.</t>
   </si>
   <si>
-    <t>Pocan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pocan. Great. Thank you very much, Mr. Chairman, Ranking Member Green, and members of the subcommittee.    Mr. Chairman, I just want to start out by saying that I think we can find bipartisan consensus on what you said at the beginning, that Wisconsin is the greatest State. So I just want to put that out there as a--</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you very much, Mr. Chairman.    Of course, I thank my colleagues for being with us today. And I am grateful that you have given considerable thought to these questions.    I will have an opening statement that I will deliver at a later time, but I do think it important to note that I don't think you will find a Member of Congress who won't agree that we should pay our debts. I don't think you will find a Member of Congress who would say we should shut down the government.    However, I do know that there are Members of Congress who contend that you can make partial payments, and by making a partial payment you somehow cause everything to go on and you don't have a disruption in domestic markets and international markets.    The witnesses who will be testifying after my colleagues will indicate some of the concerns that they have with reference to disruptions of markets in the event we make a partial payment of our debts, partial payment meaning just decide to pay the principal and interest, take care of the Treasuries, make sure the bonds are paid, and overlook things like Medicaid, Medicare, and Social Security. There is at least one witness who thinks that we should overlook Social Security, just pay the interest on the debt.    So with that as the circumstance, Mr. Pocan, would you advocate in any way making a partial payment, meaning pay some parts of the debt, but not paying all of the debts?</t>
   </si>
   <si>
@@ -142,18 +130,12 @@
     <t xml:space="preserve">    Chairman Duffy. Okay. There was much discussion on how we say your name, so if I am close, good. Dr. de Rugy is a senior research fellow at the Mercatus Center at George Mason University, and a nationally syndicated columnist.    Next, Ms. ``Boccia''--is that right?</t>
   </si>
   <si>
-    <t>Boccia</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Boccia. It is ``Boccia,'' but thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Duffy. Okay. Ms. Boccia is the deputy director of the Thomas A. Roe Institute for Economics and Policy Studies, and a Grover M. Hermann research fellow at the Heritage Foundation.    And finally, Dr. Stone is a chief economist at the Center on Budget and Policy Priorities, where he specializes in the economic analysis of budget and policy issues.    To all of you, welcome.    You see you have three lights at your desks: the green light means go; the yellow light means that you have one minute left; and the red light means your time is up. Your microphones are sensitive, so you have to make sure you have them on when you speak, as a reminder.    And so with that, Dr. Mitchell, you are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mitchell. Thank you, Mr. Chairman, and members of the subcommittee. My name is Dan Mitchell, and I am a senior fellow at the Cato Institute. I appreciate the opportunity to summarize my testimony here.    Our Nation faces very serious, long-run fiscal challenges thanks to changing demographics and poorly designed entitlement programs. All of you know that from various reports from CBO, OMB, GAO, and private forecasters. I would say all these estimates that we get tend to focus on the red ink, which I think is useful information, but I also think it is incomplete because what we should be focusing on is the underlying burden of government spending.    The red ink is the symptom, and excessive government spending is the underlying problem. And that spending, whether it is financed by taxes, borrowing, or printing money, is what entails to a diversion of resources from the productive sector of the economy.    It is also best to focus on government spending because projections of ever-larger levels of long-run debt are the result of ever-expanding amounts of Federal spending, not inadequate tax receipts.    If you look at the CBO numbers that just came out, it is very clear that tax revenues already are above their long-run average, and not only that, but they are going to continue to increase over time, not because of legislated tax increases, but simply because some parts of the Tax Code aren't indexed to inflation, and also even low levels of economic growth will result in what is called real bracket creep over time.    So when you are looking 1 decade, 2 decades, 3 decades down the road, Federal tax revenue will be growing as a share of the economy. The problem that we have with our long-run fiscal forecast is not on the revenue side of the equation. Revenues are growing, but the burden of government spending is growing even faster.    And as I mentioned before, it is largely because of entitlement programs combined with changing demographics. A reasonable-sized welfare state is possible when you have a traditional population pyramid. But because of aging population and falling birthrates, we are moving toward a population cylinder, and that is going to create very, very serious problems. Indeed, if you look at some of these forecasts, we are on a path to becoming a failed European-style welfare state.    As a matter of fact, if you look at some of the long-run numbers, not only from our own agencies, but if you look at what the International Monetary Fund is projecting, the Organization for Economic Cooperation and Development, the Bank for International Settlements, they all show numbers that are actually worse than what you see in terms of the long-run forecasts for France, Italy, Greece, and places like that.    Now, I actually think those estimates are a little bit too pessimistic because they are basically premised on the notion that we have this big, built-in increase in government spending and tax revenues are growing only very slowly as a share of the economy and they assume compounding levels of government debt.    We could actually solve that problem relatively simply by simply putting a cap on government spending. And so, even though these long-run forecasts show us with more long-run debt than France and Greece and Italy, I actually think our problem is much easier to solve because they are already at levels where the government is consuming more than half of the productive sector of the economy, and their tax burdens are at or above the revenue-maximizing level. That is a much, much harder problem to solve.    We do have this long-run problem, so the question is, however you measure it, how do we solve it? Should the debt limit be an action-forcing event for fiscal reform?    And my conclusion is yes, because it beats the alternative. And here is an example that I shared with the Senate Budget Committee a couple of years ago. Look at Greece today, a very deep recession, a completely miserable economic situation, incredibly high levels of unemployment, including 50 percent unemployment for young people. Why are they in this mess? Because they had a fiscal crisis.    Imagine, though, if 15 or 20 or 25 years ago Greece had something akin to the debt limit, some action-forcing event. And let us say that some lawmakers 15 or 20 or 25 years ago threw sand in the gears, caused shutdowns, caused debt limit fights, whatever you want to call it, but imagine if all that had forced Greece to engage in reform. It might have caused a little bit of discomfort then, but it would have saved the Greek people from the much, much deeper levels of misery that they are suffering now.    And I sort of view the whole debt limit fights or government shutdown fights, any of the fights that we are having now, sequester fights, they are basically an opportunity to save America from enduring that kind of suffering that the Greek people are dealing with. And so that is why a debt limit fight or some other fight would be necessary.    Now there are, of course, arguments against this approach. One of the arguments is, and we saw this with the July 2015 GAO report, that, oh, if you have these debt limit fights, what is going to happen? You are going to have higher levels of interest on the debt. Again, that is peanuts compared to the long-term suffering that might occur.    And the other argument is that you are going to have a default or you are not going to be able to pay interest on the debt.    I will close with simply the point that in 2017, the next time we have a debt limit, CBO projects that revenues will be more than $3.5 trillion and they project that interest on the debt will be $308 billion, more than 11 times as much revenue as would be needed. So prioritization, not desirable, but it would work.    Thank you.    [The prepared statement of Dr. Mitchell can be found on page 59 of the appendix.]</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t xml:space="preserve">    Chairman Duffy. Thank you.    And the Chair now recognizes Dr. Stone for 5 minutes.</t>
   </si>
   <si>
-    <t>Stone</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stone. Thank you.    Chairman Duffy, Ranking Member Green, and members of the subcommittee, thank you for the opportunity to testify at today's hearing.    In my written testimony, I make two broad points. The first is the need to focus not just on spending, but also on revenues in addressing our long-term budget challenges.    The second is to caution strongly against thinking that the statutory limit on Federal debt has a constructive role to play in addressing those challenges.    Budget deficits result from an imbalance between spending and revenue, rising debt relative to the size of the economy results from persistent large deficits, not from too much spending, per se. Any plausible amount of spending to meet society's needs is sustainable if there are sufficient revenues to avoid large deficits.    CBO projects that under current tax and spending policies, rising debt will ultimately prove unsustainable. This poses a serious challenge to policymakers. At the same time, as I discuss in the first part of my testimony, there is not an immediate crisis. Policymakers, however, will have to make hard choices in setting a future course that is both fiscally responsible and realistic about the levels of spending and taxes appropriate to the country's needs. These decisions need to be kept separate from the debt limit.    As I discussed in the second part of my testimony, the debt limit encourages reckless brinkmanship that makes it harder to work out the compromises necessary to achieve a sustainable deficit reduction agreement. As former Federal Reserve Chairman Ben Bernanke says in his recent book, refusing to raise the debt limit takes the economic well-being of the country hostage. That ought to be unacceptable, no matter what underlying issue is being contested.    Here are some key points from my written testimony, that I will be happy to elaborate on later. On trends in government spending and debt, which I will always speak of relative to the size of the economy, i.e., as a share of GDP rather than in dollar terms, I have four charts in my testimony that help illustrate the following points.    First, the financial crisis and the Great Recession were a major shock to the economy and the budget. But factors causing a surge in deficits and debt after 2008 were temporary revenue losses and spending increases due to the economic weakness and temporary tax cuts and spending increases to combat that weakness.    Those policies have largely abated as the economy has been recovering. Stimulus programs have phased down and policymakers have enacted new deficit-reduction policies.    Second, budget analysts have known for a long time that the aging of the population and rising health care costs are the drivers of long-term spending projections, not a problem of spending growing faster than the economy throughout the government.    The Center on Budget and Policy Priorities finds, for example, that program, that is non-interest, spending outside of Social Security and Medicare, is running below its historical average as a percent of GDP and is projected to fall further in the future.    Increasing generosity of benefits is not what is driving the increase in Social Security and Medicare spending. Rather, it is the rising share of the population eligible for benefits, and in Medicare rising health care costs, which affect public and private health care spending alike.    Historical levels of spending and revenues are a poor guide to what is required to meet 21st Century national needs and be fiscally responsible.    Third, and this is important, low-income programs are not a driver of long-term deficit projections. Specifically, outside of health care, Federal spending for low-income programs, including refundable tax credits, such as the earned income tax credit, are on track to fall below their 4-decade average of 2.1 percent of GDP in coming years--fall below.    Fourth, long-run fiscal sustainability does not require balanced budgets. For example, even though there were deficits in almost every year between World War II and the early 1970s, debt grew much more slowly than the economy, so the debt-to-GDP ratio fell dramatically.    Let me be brief about the debt limit. Setting a limit on debt is an ineffective means of controlling deficits. That is a direct quote from a 2010 CBO report. Debt subject to a statutory limit is a measure that has no economic or financial significance. CBO instead features debt held by the public, basically the sum of all past deficits minus surpluses, in its presentations because that public borrowing is what affects national saving and credit markets.    The debt limit is not innocuous if it is used politically and raises concerns that the United States might actually do the unthinkable and default on its financial obligations. It is not innocuous. Debt prioritization measures, like the ones we are talking about, do not mitigate that problem, even if it proves feasible to pull out and pay interest and Social Security obligations.    By appearing to make a default legitimate and manageable, it would heighten the risk that one would actually occur. Failing to pay other obligations in a protracted showdown would be like sequestration on steroids and would be damaging to the United States credit rating.    Thank you.    [The prepared statement of Dr. Stone can be found on page 68 of the appendix.]</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>412565</t>
   </si>
   <si>
-    <t>Joyce Beatty</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Beatty. Thank you, Mr. Chairman, and Ranking Member Green.    I am going to be very brief and just make a statement I would like to be entered into the record, and a question. And if appropriate, I would like to yield the balance of my time to the ranking member.    My statement for the record is that in that this is a formal hearing, I would appreciate, as we say ``chairman'' and ``Dr.'' and ``Mr.'' that we make reference to the President of these United States as President Barack Obama in this hearing. That is just my personal statement.    Secondly, my question is yesterday, the Majority released a press release in which I believe the chairman of this subcommittee was quoted as saying that President Barack Obama manufactured a crisis when talking about the consequences of raising the debt limit in 2011.    Dr. Stone, do you believe that the President manufactured a crisis?</t>
   </si>
   <si>
@@ -274,9 +250,6 @@
     <t>412422</t>
   </si>
   <si>
-    <t>Randy Hultgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman.    Thank you all for being here. This is a very important subject, as we see ticking behind your heads and on the sides here. This is a huge challenge that we need to address, and we need to face. And I really do want to thank the witnesses for appearing here today.    I especially wanted to thank our previous panel. Congressman McClintock has shown incredible leadership on this issue. I am proud to be a cosponsor of the Default Prevention Act and was pleased to see it passed last October. I hope we can continue to push on that.    I have been more than frustrated with the Administration's apparent desire to increase our debt, and their disinterest in having serious conversations about reducing long-term spending, such as making reforms to our entitlement programs that we all know need to be discussed.    My first question I am going to address to Dr. Mitchell and maybe if somebody else wants to jump in as well.    But as we learned from the committee's report, the Administration is able to prioritize debt payments. In fact, they made plans to do so, but failed to share them with Congress and the American people.    Given the fact that Treasury is capable of prioritizing debt payments over other obligations, wouldn't it make sense for Congress to mandate that debt payments should be prioritized in the event the debt ceiling is reached, to ensure that America does not default on its sovereign debt?</t>
   </si>
   <si>
@@ -316,9 +289,6 @@
     <t>412584</t>
   </si>
   <si>
-    <t>Denny Heck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman.    I would like to begin my questions with a statement. I find all of this to be a bit surreal. And I will stipulate that is no doubt, in no small part, due to being raised in a household where mom and dad said, pay your bills.    I have to say that this whole idea of blowing through the debt ceiling and prioritizing or defaulting or however you want to characterize it absolutely reminds me of a couple getting in an argument about how high their credit card bill has become, and somebody says, well, this is easy, tear up the bill, as opposed to the credit card. And that is, in effect, what is being suggested here today by many people.    But not by everybody. In fact, I want to acknowledge that both Dr. de Rugy and Ms. Boccia had what I would characterize as the intellectual honesty to actually come out and say we need to cut Social Security in order to bring spending into line. And I think that is intellectually honest and I do commend you for it.    Dr. Mitchell, I heard you say that we needed to reduce spending, we needed to reduce entitlements. Are you ready to throw in with your colleagues that that includes Social Security and that the way to control spending going forward, it is your position, includes cutting Social Security benefits?</t>
   </si>
   <si>
@@ -358,9 +328,6 @@
     <t>412548</t>
   </si>
   <si>
-    <t>Ann Wagner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Wagner. Thank you, Mr. Chairman.    And thank you to our esteemed panel for coming before this subcommittee to discuss this important issue of our Nation's debt, which now stands at an outrageous $19 trillion.    For Congress, the debt ceiling should be an important and necessary tool to look back on our spending policies in order to find ways to cut this massive Federal Government. Instead, this Administration has used the debt ceiling as simply a blank check and a political attack vehicle.    The American people are tired of the dysfunction in Washington and tired of their elected officials and leaders failing to get things done, and cutting our out-of-control and irresponsible debt is something the American people want done.    In 2013, when I and a number of my House colleagues had the privilege of going to the White House to negotiate in very good faith with the President on the debt ceiling, he decided to use the opportunity to lecture and pontificate, not negotiate. And I was there.    He used dramatic rhetoric such as not wanting to, ``negotiate with a gun pointed at their heads,'' and used the press then to paint House Republicans as unwilling to talk and address the peoples' concern about our fiscally, as you all have stated, unsustainable and, I think as a mother of three, immoral debt.    Now with these new revelations, and frankly, that is what we are here to discuss, Mr. Chairman, these revelations produced by this committee, it is clear that the Administration manufactured and hyped up the crisis in order to prevent, I think, Republicans and Congress, who are committed to slashing our debt, from enacting smart and responsible fiscal policy.    Knowing now that the Administration was capable of prioritizing debt payments and actually running tabletop exercises after reaching the debt limit, do you find the Administration's statements to the contrary disingenuous, Ms. de Rugy?    Ms. de Rugy. It is politics, so I guess I am not surprised.</t>
   </si>
   <si>
@@ -400,9 +367,6 @@
     <t>412405</t>
   </si>
   <si>
-    <t>Scott R. Tipton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman.    And I thank our panel for taking the time to be here.    Ms. Boccia, you just mentioned a game of chicken that the Administration was playing. Did that impact our markets?</t>
   </si>
   <si>
@@ -472,9 +436,6 @@
     <t>412633</t>
   </si>
   <si>
-    <t>Bruce Poliquin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you, Mr. Chairman; I appreciate it very much.    And thank you all for being here today.    Before I entered Congress a year ago, I was the State treasurer in Maine and a small-business owner. I still am a small-business owner. And one of the things that we learned, those of us who are business owners is: number one, live within your means; and number two, be very, very careful with debt.    Now, I will tell you, one of the things that we learned, Mr. Chairman, back in Maine when I was State treasurer, we actually had a debt clock that was unwinding. I come in here every hearing and I look at that $19 trillion continuing to spool up and it makes me sick to my stomach. It makes me sick to my stomach because there aren't enough people, frankly, on the other side of the aisle who have the guts to deal with this. They talk about it, but all they want is bigger government, more spending, and more debt, which results in higher taxes. And they, of course, want more regulations and higher energy costs, and that kills jobs.    And it kills jobs, that is important, because if our folks don't have jobs, then they don't pay taxes, they are more dependent on the government, and we don't have the cash flow to meet our obligations.    Now, the reason we were able to unwind our debt clock in Maine during 2011, 2012 is because we attacked a fundamental issue dealing with the debt, which is our unfunded pension liability, public pension fund. We looked it in the eye, we were serious about it, we engaged all stakeholders and we reduced 41 percent of that pension debt, which caused the debt clock to unwind.    Now, we have the same problem here, Mr. Chairman. We have a $15 trillion unfunded defined benefit pension plan called Social Security. Now, we all know in this room and the folks who are listening, two-thirds of our budget is on autopilot in four programs: Medicare; Medicaid; Social Security; and interest on the debt, which isn't a program, but it continues to grow.    When are we going to have a serious conversation with the kids in this country, 25- and 30-year-old folks to say, if you want these programs that are growing a lot faster than our tax revenues, we need to make some changes? We know what to do; it is simple math.    Now, I am not talking about our seniors, Mr. Chairman, who have paid into these programs their whole lives and are depending on these programs. No change for them. But we have millennials, and there are a lot of them, a lot more than the baby boomers, and we can fix this.    So that is one of the reasons, Mr. Chairman, why I support, and I know you do, too, and those on this side of the aisle do, a balanced budget amendment of the Constitution. My second day here, when I was still trying to find out where the men's room was. I cosponsored that bill. I think it would be the greatest institutional tool that Washington could have. Force Washington to live within its means so we can start paying down our debt.    Now, Mr. Chairman, when we have Mr. Lew coming in here, the Secretary of the Treasury, telling us, well, the debt is no big deal, it is only 3, 4 percent of the GDP, we have talked about it today, you have, Mr. Chairman, thank you, the interest payments on that debt are now twice what we spend on veterans' benefits in a year. They are projected to exceed what we spend to defend our country in 8 years. It is a big deal.    Now, I would say also, Mr. Chairman, that 4 years ago the annual budget deficit was $1.3 trillion, and it is now $440 billion. We have a long way to go, but it has been cut in two-thirds, not because some folks don't want to spend more, but because Republicans are trying to be fiscally disciplined and have spending caps in place.    So my question to you, Mr. Mitchell, is--you have been around this town a lot longer than I have--do you think we have enough people in Congress who have the guts to address our spending problem, who will allow us to start whittling away at that $19 trillion debt that is chewing up our budget and putting a yoke around our kids' necks, that they are going to be saddled with, that creates a tremendous dark cloud above our economy and kills jobs and kills the kids of our future? What do you think?</t>
   </si>
   <si>
@@ -511,9 +472,6 @@
     <t>412609</t>
   </si>
   <si>
-    <t>J. French Hill</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman.    And I thank the panel for being with us. It's good to see my old friend, Dan Mitchell.    I am reminded by listening to this discussion, and from my friend Mr. Heck, as a 30-year banker and business guy, of the woman who comes into the bank branch and says, ``I can't be overdrawn in my account.'' And the bank manager says, ``But you are.'' And she says, ``I can't be; I still have checks.''    No laughter, oh well. Banking jokes just don't go over like they used to.    [laughter]    Thank you. Thank you to the gentleman from South Carolina.    As a former Treasury official, it really saddens me to read comments from the New York Fed which say that the Treasury's position is crazy, counterproductive, and is adding risk to the system. And that my friend, former Treasury official, now a Governor of the Federal Reserve System, Jay Powell, says that Treasury is politicizing important fiscal policy.    I think we should all be shocked by that, Democrats and Republicans, because there is no room for that in the proper governance of our country. And it goes absolutely against everything Hamilton put in place back in his report on the public debt, 1790.    I am interested in some quick responses and then I have a couple of questions. Does everybody here--and I am interested because I have kind of gotten a couple of different feelings--support the fact that we have a debt limit and it comes up and we debate it? Just raise your hands if you support the existing debt limit statute, effectively. Okay, three yes and one no.    And do you all support Congressman McClintock's bill that we passed in the House last year? If you would raise your hands on that?</t>
   </si>
   <si>
@@ -563,9 +521,6 @@
   </si>
   <si>
     <t>412474</t>
-  </si>
-  <si>
-    <t>Mick Mulvaney</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mulvaney. Mr. Stone, in your report you cite a GAO report which says, regarding the debt ceiling crisis in 2011, ``When the Treasury was close to breaching the debt limit, investors reported taking the unprecedented action of systematically avoiding certain Treasury securities. That cost from the Treasury from, roughly, $38 million to more than $70 million in higher interest costs, amounting to, in essence, nothing more than a waste of taxpayers' money.''    I take it that was because of the uncertainty in the markets. That is why interest rates go up, or that is one of the reasons that they do.    If the Treasury had information at that time that could have calmed the markets by letting the markets know that we would have paid principal and interest, do you think they should have revealed it?    Let me put it this way, if they had revealed it, would it have calmed the markets?</t>
@@ -1066,11 +1021,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1090,13 +1043,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1118,11 +1069,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1144,11 +1093,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1168,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1196,11 +1141,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1220,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1248,11 +1189,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1272,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1300,11 +1237,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1324,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1352,11 +1285,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1376,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1402,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1428,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1454,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1480,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1506,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1532,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1560,11 +1477,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1584,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1610,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1638,11 +1549,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1664,11 +1573,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1688,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1716,11 +1621,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1740,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1768,11 +1669,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1794,11 +1693,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1818,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1846,11 +1741,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1870,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1898,11 +1789,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1922,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1950,11 +1837,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1976,11 +1861,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2000,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2028,11 +1909,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2052,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2080,11 +1957,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2104,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2132,11 +2005,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2156,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2184,11 +2053,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2208,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2236,11 +2101,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2260,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2286,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2312,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2338,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2364,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2390,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2416,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2442,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>28</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2468,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2494,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2520,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2546,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2572,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2598,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2624,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2652,11 +2485,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2676,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2702,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2728,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2754,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2780,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2806,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2832,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2858,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2884,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>85</v>
-      </c>
-      <c r="G72" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>86</v>
-      </c>
-      <c r="H72" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2910,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2936,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>86</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2964,11 +2773,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2988,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
-      </c>
-      <c r="G76" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3014,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3040,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3066,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3092,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3118,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3144,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3170,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3196,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>99</v>
-      </c>
-      <c r="G84" t="s">
-        <v>100</v>
-      </c>
-      <c r="H84" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3222,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3248,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" t="s">
-        <v>100</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3276,11 +3061,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3300,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
-      </c>
-      <c r="G88" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3326,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
-      </c>
-      <c r="G89" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3352,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
-      </c>
-      <c r="G90" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3378,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3404,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
-      </c>
-      <c r="G92" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3430,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3456,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3482,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3508,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" t="s">
-        <v>114</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3534,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3560,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
-      </c>
-      <c r="G98" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
         <v>114</v>
-      </c>
-      <c r="H98" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3588,11 +3349,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3612,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>127</v>
-      </c>
-      <c r="G100" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3638,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3664,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>127</v>
-      </c>
-      <c r="G102" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3690,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3716,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>127</v>
-      </c>
-      <c r="G104" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3742,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3768,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>127</v>
-      </c>
-      <c r="G106" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3794,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3820,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3846,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3872,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
+        <v>116</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
         <v>127</v>
-      </c>
-      <c r="G110" t="s">
-        <v>128</v>
-      </c>
-      <c r="H110" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3898,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3924,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>127</v>
-      </c>
-      <c r="G112" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3950,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3976,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G114" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4002,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4028,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4054,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4080,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>127</v>
-      </c>
-      <c r="G118" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4106,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4132,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>127</v>
-      </c>
-      <c r="G120" t="s">
-        <v>128</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4160,11 +3877,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4184,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>151</v>
-      </c>
-      <c r="G122" t="s">
-        <v>152</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4210,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4236,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4262,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4288,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>151</v>
-      </c>
-      <c r="G126" t="s">
-        <v>152</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4314,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4340,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>151</v>
-      </c>
-      <c r="G128" t="s">
-        <v>152</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4366,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4394,11 +4093,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4418,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>151</v>
-      </c>
-      <c r="G131" t="s">
-        <v>152</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4446,11 +4141,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4470,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>164</v>
-      </c>
-      <c r="G133" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4496,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>42</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4522,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4548,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>164</v>
-      </c>
-      <c r="G136" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4574,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>164</v>
-      </c>
-      <c r="G137" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4600,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4626,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4652,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4678,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>164</v>
-      </c>
-      <c r="G141" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4706,11 +4381,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4730,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>28</v>
-      </c>
-      <c r="G143" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4756,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4782,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>28</v>
-      </c>
-      <c r="G145" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4808,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4834,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
-      </c>
-      <c r="G147" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4862,11 +4525,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4886,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>182</v>
-      </c>
-      <c r="G149" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4912,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4938,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>182</v>
-      </c>
-      <c r="G151" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4964,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4990,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>182</v>
-      </c>
-      <c r="G153" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5016,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5042,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>182</v>
-      </c>
-      <c r="G155" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5068,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5094,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>182</v>
-      </c>
-      <c r="G157" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5120,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5146,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>182</v>
-      </c>
-      <c r="G159" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5172,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5198,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>182</v>
-      </c>
-      <c r="G161" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5224,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5250,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>182</v>
-      </c>
-      <c r="G163" t="s">
+        <v>168</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
         <v>183</v>
-      </c>
-      <c r="H163" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5276,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5302,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>182</v>
-      </c>
-      <c r="G165" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5328,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5354,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>182</v>
-      </c>
-      <c r="G167" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5380,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5406,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>182</v>
-      </c>
-      <c r="G169" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5432,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5458,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>182</v>
-      </c>
-      <c r="G171" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5484,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5510,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>182</v>
-      </c>
-      <c r="G173" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5536,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5562,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>182</v>
-      </c>
-      <c r="G175" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5588,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5614,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>182</v>
-      </c>
-      <c r="G177" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5640,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5666,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>182</v>
-      </c>
-      <c r="G179" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5692,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>51</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5718,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>182</v>
-      </c>
-      <c r="G181" t="s">
-        <v>183</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5746,11 +5341,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412488</t>
   </si>
   <si>
+    <t>Duffy</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Duffy. The Subcommittee on Oversight and Investigations is called to order.    The subject of today's hearing, as evidenced by the rapidly changing graphic on the screens around us, is, ``Unsustainable Federal Spending and the Debt Limit.''    We have a series of votes coming up, so we will proceed with our first panel of witnesses. Welcome to the Honorable Tom McClintock, who represents the 4th Congressional District in California. Next, we have the Honorable Mark Pocan, who represents one of the great States, if not the greatest State, Wisconsin, from the 2nd Congressional District.    With that, Mr. McClintock, you are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>McClintock</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McClintock. Thank you, Mr. Chairman.    Our government's good credit is vital to everything that we do here. And there are two ways to wreck that credit: by borrowing too much; or by failing to pay it back on time and in full.    Congress alone has the constitutional power to tax, to borrow, and to spend. We regulate our borrowing through the debt limit. And when we need to increase it, we have a duty to review and revise the policies that are driving it.    The United States now staggers under $19 trillion of debt, nearly half of it run up in the last 8 years. The interest on that debt is the fastest-growing component of the Federal budget. Within 5 years, it will consume more than we now spend for our entire defense establishment. That is why we dare not increase the debt without also correcting what is causing it.    But that can often lead to temporary impasses. And when that happens, it is vital that credit markets maintain supreme confidence in the security of their loans, otherwise the interest rates that lenders charge us would quickly rise to account for the increased risk, and our precarious budget situation would rapidly spin out of control.    The organic law that established the Treasury Department in 1789 specifically says that it shall be the duty of the Secretary of the Treasury to digest and prepare plans for the improvement and management of the revenue and for the support of the public credit.    ``Manage the revenue and support the public credit:'' the GAO clearly spelled out what that means in answering the Senate Finance Committee in 1985: ``Treasury is free to liquidate obligations in any order it finds will best serve the interests of the United States.''    The Constitution commands that the public debt is not to be questioned, and this is the practical mechanism for it. Most State constitutions provide that first call on any revenues is to maintain and protect their sovereign credit.    Now, that brings us to the fine point of the matter. In recent years, the Treasury Department has denied that it has either the ability or the authority to do so. Well, we now know from documents that were recently uncovered by this committee that this was a deliberate and calculated lie told to increase political pressure on Congress. We also know the Treasury Department was actually preparing contingency plans to prioritize debt at the same time the Treasury Secretary was publicly denying that he could.    These documents also reveal that Federal Reserve officials were incredulous and appalled that the Administration would make such statements because they ran a severe risk of panicking credit markets.    In 2001, I first introduced legislation to place an affirmative duty on the Treasury Department to provide first claim on any revenues for debt service. Ironically, the same Treasury Secretary who claimed he lacked legal authority opposed this bill that explicitly gave him that legal authority.    In response to his untruthful claim that it wasn't possible, we amended my bill in 2013 simply to allow the Treasury Secretary to borrow above the debt limit to guarantee that the debt would be paid in full and on time without having to prioritize. It passed the House in 2013, and again last year.    Opponents argued that this put creditors, like China, ahead of paying troops in the field. Actually, most of our debt is owed to Americans, and without our credit we can't pay our troops or anybody else. By protecting our credit first, we actually support and maintain our ability to pay for all of our other obligations.    Now, the President said this was tantamount to a family saying it would make its house payment, but not its car payment. Both are bad, but let us continue this analogy. If the family is living on its credit cards, as we are as a Nation, it had better make the minimum payments on its credit card first or it won't be able to pay the rest of its bills. And when that family has to increase its credit limit because it is spending above its means, it had better have a serious conversation about what is driving that debt and what to do about it.    Principled disputes over how the debt limit is addressed are going to happen from time to time. And just a few years ago, then-Senator Barack Obama vigorously opposed an increase in the debt limit sought by the Bush Administration. When these controversies erupt, as they inevitably do in a free society, it is imperative that credit markets are supremely confident that their loans to the United States are secure.    Thank you.    [The prepared statement of Representative McClintock can be found on page 57 of the appendix.]</t>
   </si>
   <si>
@@ -67,6 +79,9 @@
     <t xml:space="preserve">    Chairman Duffy. The subcommittee will reconvene.    Just to be clear, without objection, the witnesses' written statements will be made a part of the record. And once the witnesses of the first panel have finished presenting their testimony, the chairman and the ranking member will each have 5 minutes to ask questions.    So with that, we will now go to the gentleman from the great State of Wisconsin, Mr. Pocan, for 5 minutes.</t>
   </si>
   <si>
+    <t>Pocan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pocan. Great. Thank you very much, Mr. Chairman, Ranking Member Green, and members of the subcommittee.    Mr. Chairman, I just want to start out by saying that I think we can find bipartisan consensus on what you said at the beginning, that Wisconsin is the greatest State. So I just want to put that out there as a--</t>
   </si>
   <si>
@@ -94,6 +109,12 @@
     <t>400653</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you very much, Mr. Chairman.    Of course, I thank my colleagues for being with us today. And I am grateful that you have given considerable thought to these questions.    I will have an opening statement that I will deliver at a later time, but I do think it important to note that I don't think you will find a Member of Congress who won't agree that we should pay our debts. I don't think you will find a Member of Congress who would say we should shut down the government.    However, I do know that there are Members of Congress who contend that you can make partial payments, and by making a partial payment you somehow cause everything to go on and you don't have a disruption in domestic markets and international markets.    The witnesses who will be testifying after my colleagues will indicate some of the concerns that they have with reference to disruptions of markets in the event we make a partial payment of our debts, partial payment meaning just decide to pay the principal and interest, take care of the Treasuries, make sure the bonds are paid, and overlook things like Medicaid, Medicare, and Social Security. There is at least one witness who thinks that we should overlook Social Security, just pay the interest on the debt.    So with that as the circumstance, Mr. Pocan, would you advocate in any way making a partial payment, meaning pay some parts of the debt, but not paying all of the debts?</t>
   </si>
   <si>
@@ -130,12 +151,18 @@
     <t xml:space="preserve">    Chairman Duffy. Okay. There was much discussion on how we say your name, so if I am close, good. Dr. de Rugy is a senior research fellow at the Mercatus Center at George Mason University, and a nationally syndicated columnist.    Next, Ms. ``Boccia''--is that right?</t>
   </si>
   <si>
+    <t>Boccia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Boccia. It is ``Boccia,'' but thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Duffy. Okay. Ms. Boccia is the deputy director of the Thomas A. Roe Institute for Economics and Policy Studies, and a Grover M. Hermann research fellow at the Heritage Foundation.    And finally, Dr. Stone is a chief economist at the Center on Budget and Policy Priorities, where he specializes in the economic analysis of budget and policy issues.    To all of you, welcome.    You see you have three lights at your desks: the green light means go; the yellow light means that you have one minute left; and the red light means your time is up. Your microphones are sensitive, so you have to make sure you have them on when you speak, as a reminder.    And so with that, Dr. Mitchell, you are recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mitchell. Thank you, Mr. Chairman, and members of the subcommittee. My name is Dan Mitchell, and I am a senior fellow at the Cato Institute. I appreciate the opportunity to summarize my testimony here.    Our Nation faces very serious, long-run fiscal challenges thanks to changing demographics and poorly designed entitlement programs. All of you know that from various reports from CBO, OMB, GAO, and private forecasters. I would say all these estimates that we get tend to focus on the red ink, which I think is useful information, but I also think it is incomplete because what we should be focusing on is the underlying burden of government spending.    The red ink is the symptom, and excessive government spending is the underlying problem. And that spending, whether it is financed by taxes, borrowing, or printing money, is what entails to a diversion of resources from the productive sector of the economy.    It is also best to focus on government spending because projections of ever-larger levels of long-run debt are the result of ever-expanding amounts of Federal spending, not inadequate tax receipts.    If you look at the CBO numbers that just came out, it is very clear that tax revenues already are above their long-run average, and not only that, but they are going to continue to increase over time, not because of legislated tax increases, but simply because some parts of the Tax Code aren't indexed to inflation, and also even low levels of economic growth will result in what is called real bracket creep over time.    So when you are looking 1 decade, 2 decades, 3 decades down the road, Federal tax revenue will be growing as a share of the economy. The problem that we have with our long-run fiscal forecast is not on the revenue side of the equation. Revenues are growing, but the burden of government spending is growing even faster.    And as I mentioned before, it is largely because of entitlement programs combined with changing demographics. A reasonable-sized welfare state is possible when you have a traditional population pyramid. But because of aging population and falling birthrates, we are moving toward a population cylinder, and that is going to create very, very serious problems. Indeed, if you look at some of these forecasts, we are on a path to becoming a failed European-style welfare state.    As a matter of fact, if you look at some of the long-run numbers, not only from our own agencies, but if you look at what the International Monetary Fund is projecting, the Organization for Economic Cooperation and Development, the Bank for International Settlements, they all show numbers that are actually worse than what you see in terms of the long-run forecasts for France, Italy, Greece, and places like that.    Now, I actually think those estimates are a little bit too pessimistic because they are basically premised on the notion that we have this big, built-in increase in government spending and tax revenues are growing only very slowly as a share of the economy and they assume compounding levels of government debt.    We could actually solve that problem relatively simply by simply putting a cap on government spending. And so, even though these long-run forecasts show us with more long-run debt than France and Greece and Italy, I actually think our problem is much easier to solve because they are already at levels where the government is consuming more than half of the productive sector of the economy, and their tax burdens are at or above the revenue-maximizing level. That is a much, much harder problem to solve.    We do have this long-run problem, so the question is, however you measure it, how do we solve it? Should the debt limit be an action-forcing event for fiscal reform?    And my conclusion is yes, because it beats the alternative. And here is an example that I shared with the Senate Budget Committee a couple of years ago. Look at Greece today, a very deep recession, a completely miserable economic situation, incredibly high levels of unemployment, including 50 percent unemployment for young people. Why are they in this mess? Because they had a fiscal crisis.    Imagine, though, if 15 or 20 or 25 years ago Greece had something akin to the debt limit, some action-forcing event. And let us say that some lawmakers 15 or 20 or 25 years ago threw sand in the gears, caused shutdowns, caused debt limit fights, whatever you want to call it, but imagine if all that had forced Greece to engage in reform. It might have caused a little bit of discomfort then, but it would have saved the Greek people from the much, much deeper levels of misery that they are suffering now.    And I sort of view the whole debt limit fights or government shutdown fights, any of the fights that we are having now, sequester fights, they are basically an opportunity to save America from enduring that kind of suffering that the Greek people are dealing with. And so that is why a debt limit fight or some other fight would be necessary.    Now there are, of course, arguments against this approach. One of the arguments is, and we saw this with the July 2015 GAO report, that, oh, if you have these debt limit fights, what is going to happen? You are going to have higher levels of interest on the debt. Again, that is peanuts compared to the long-term suffering that might occur.    And the other argument is that you are going to have a default or you are not going to be able to pay interest on the debt.    I will close with simply the point that in 2017, the next time we have a debt limit, CBO projects that revenues will be more than $3.5 trillion and they project that interest on the debt will be $308 billion, more than 11 times as much revenue as would be needed. So prioritization, not desirable, but it would work.    Thank you.    [The prepared statement of Dr. Mitchell can be found on page 59 of the appendix.]</t>
   </si>
   <si>
@@ -151,6 +178,9 @@
     <t xml:space="preserve">    Chairman Duffy. Thank you.    And the Chair now recognizes Dr. Stone for 5 minutes.</t>
   </si>
   <si>
+    <t>Stone</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stone. Thank you.    Chairman Duffy, Ranking Member Green, and members of the subcommittee, thank you for the opportunity to testify at today's hearing.    In my written testimony, I make two broad points. The first is the need to focus not just on spending, but also on revenues in addressing our long-term budget challenges.    The second is to caution strongly against thinking that the statutory limit on Federal debt has a constructive role to play in addressing those challenges.    Budget deficits result from an imbalance between spending and revenue, rising debt relative to the size of the economy results from persistent large deficits, not from too much spending, per se. Any plausible amount of spending to meet society's needs is sustainable if there are sufficient revenues to avoid large deficits.    CBO projects that under current tax and spending policies, rising debt will ultimately prove unsustainable. This poses a serious challenge to policymakers. At the same time, as I discuss in the first part of my testimony, there is not an immediate crisis. Policymakers, however, will have to make hard choices in setting a future course that is both fiscally responsible and realistic about the levels of spending and taxes appropriate to the country's needs. These decisions need to be kept separate from the debt limit.    As I discussed in the second part of my testimony, the debt limit encourages reckless brinkmanship that makes it harder to work out the compromises necessary to achieve a sustainable deficit reduction agreement. As former Federal Reserve Chairman Ben Bernanke says in his recent book, refusing to raise the debt limit takes the economic well-being of the country hostage. That ought to be unacceptable, no matter what underlying issue is being contested.    Here are some key points from my written testimony, that I will be happy to elaborate on later. On trends in government spending and debt, which I will always speak of relative to the size of the economy, i.e., as a share of GDP rather than in dollar terms, I have four charts in my testimony that help illustrate the following points.    First, the financial crisis and the Great Recession were a major shock to the economy and the budget. But factors causing a surge in deficits and debt after 2008 were temporary revenue losses and spending increases due to the economic weakness and temporary tax cuts and spending increases to combat that weakness.    Those policies have largely abated as the economy has been recovering. Stimulus programs have phased down and policymakers have enacted new deficit-reduction policies.    Second, budget analysts have known for a long time that the aging of the population and rising health care costs are the drivers of long-term spending projections, not a problem of spending growing faster than the economy throughout the government.    The Center on Budget and Policy Priorities finds, for example, that program, that is non-interest, spending outside of Social Security and Medicare, is running below its historical average as a percent of GDP and is projected to fall further in the future.    Increasing generosity of benefits is not what is driving the increase in Social Security and Medicare spending. Rather, it is the rising share of the population eligible for benefits, and in Medicare rising health care costs, which affect public and private health care spending alike.    Historical levels of spending and revenues are a poor guide to what is required to meet 21st Century national needs and be fiscally responsible.    Third, and this is important, low-income programs are not a driver of long-term deficit projections. Specifically, outside of health care, Federal spending for low-income programs, including refundable tax credits, such as the earned income tax credit, are on track to fall below their 4-decade average of 2.1 percent of GDP in coming years--fall below.    Fourth, long-run fiscal sustainability does not require balanced budgets. For example, even though there were deficits in almost every year between World War II and the early 1970s, debt grew much more slowly than the economy, so the debt-to-GDP ratio fell dramatically.    Let me be brief about the debt limit. Setting a limit on debt is an ineffective means of controlling deficits. That is a direct quote from a 2010 CBO report. Debt subject to a statutory limit is a measure that has no economic or financial significance. CBO instead features debt held by the public, basically the sum of all past deficits minus surpluses, in its presentations because that public borrowing is what affects national saving and credit markets.    The debt limit is not innocuous if it is used politically and raises concerns that the United States might actually do the unthinkable and default on its financial obligations. It is not innocuous. Debt prioritization measures, like the ones we are talking about, do not mitigate that problem, even if it proves feasible to pull out and pay interest and Social Security obligations.    By appearing to make a default legitimate and manageable, it would heighten the risk that one would actually occur. Failing to pay other obligations in a protracted showdown would be like sequestration on steroids and would be damaging to the United States credit rating.    Thank you.    [The prepared statement of Dr. Stone can be found on page 68 of the appendix.]</t>
   </si>
   <si>
@@ -199,6 +229,12 @@
     <t>412565</t>
   </si>
   <si>
+    <t>Beatty</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Beatty. Thank you, Mr. Chairman, and Ranking Member Green.    I am going to be very brief and just make a statement I would like to be entered into the record, and a question. And if appropriate, I would like to yield the balance of my time to the ranking member.    My statement for the record is that in that this is a formal hearing, I would appreciate, as we say ``chairman'' and ``Dr.'' and ``Mr.'' that we make reference to the President of these United States as President Barack Obama in this hearing. That is just my personal statement.    Secondly, my question is yesterday, the Majority released a press release in which I believe the chairman of this subcommittee was quoted as saying that President Barack Obama manufactured a crisis when talking about the consequences of raising the debt limit in 2011.    Dr. Stone, do you believe that the President manufactured a crisis?</t>
   </si>
   <si>
@@ -250,6 +286,12 @@
     <t>412422</t>
   </si>
   <si>
+    <t>Hultgren</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hultgren. Thank you, Mr. Chairman.    Thank you all for being here. This is a very important subject, as we see ticking behind your heads and on the sides here. This is a huge challenge that we need to address, and we need to face. And I really do want to thank the witnesses for appearing here today.    I especially wanted to thank our previous panel. Congressman McClintock has shown incredible leadership on this issue. I am proud to be a cosponsor of the Default Prevention Act and was pleased to see it passed last October. I hope we can continue to push on that.    I have been more than frustrated with the Administration's apparent desire to increase our debt, and their disinterest in having serious conversations about reducing long-term spending, such as making reforms to our entitlement programs that we all know need to be discussed.    My first question I am going to address to Dr. Mitchell and maybe if somebody else wants to jump in as well.    But as we learned from the committee's report, the Administration is able to prioritize debt payments. In fact, they made plans to do so, but failed to share them with Congress and the American people.    Given the fact that Treasury is capable of prioritizing debt payments over other obligations, wouldn't it make sense for Congress to mandate that debt payments should be prioritized in the event the debt ceiling is reached, to ensure that America does not default on its sovereign debt?</t>
   </si>
   <si>
@@ -289,6 +331,12 @@
     <t>412584</t>
   </si>
   <si>
+    <t>Heck</t>
+  </si>
+  <si>
+    <t>Denny</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Heck. Thank you, Mr. Chairman.    I would like to begin my questions with a statement. I find all of this to be a bit surreal. And I will stipulate that is no doubt, in no small part, due to being raised in a household where mom and dad said, pay your bills.    I have to say that this whole idea of blowing through the debt ceiling and prioritizing or defaulting or however you want to characterize it absolutely reminds me of a couple getting in an argument about how high their credit card bill has become, and somebody says, well, this is easy, tear up the bill, as opposed to the credit card. And that is, in effect, what is being suggested here today by many people.    But not by everybody. In fact, I want to acknowledge that both Dr. de Rugy and Ms. Boccia had what I would characterize as the intellectual honesty to actually come out and say we need to cut Social Security in order to bring spending into line. And I think that is intellectually honest and I do commend you for it.    Dr. Mitchell, I heard you say that we needed to reduce spending, we needed to reduce entitlements. Are you ready to throw in with your colleagues that that includes Social Security and that the way to control spending going forward, it is your position, includes cutting Social Security benefits?</t>
   </si>
   <si>
@@ -328,6 +376,12 @@
     <t>412548</t>
   </si>
   <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Wagner. Thank you, Mr. Chairman.    And thank you to our esteemed panel for coming before this subcommittee to discuss this important issue of our Nation's debt, which now stands at an outrageous $19 trillion.    For Congress, the debt ceiling should be an important and necessary tool to look back on our spending policies in order to find ways to cut this massive Federal Government. Instead, this Administration has used the debt ceiling as simply a blank check and a political attack vehicle.    The American people are tired of the dysfunction in Washington and tired of their elected officials and leaders failing to get things done, and cutting our out-of-control and irresponsible debt is something the American people want done.    In 2013, when I and a number of my House colleagues had the privilege of going to the White House to negotiate in very good faith with the President on the debt ceiling, he decided to use the opportunity to lecture and pontificate, not negotiate. And I was there.    He used dramatic rhetoric such as not wanting to, ``negotiate with a gun pointed at their heads,'' and used the press then to paint House Republicans as unwilling to talk and address the peoples' concern about our fiscally, as you all have stated, unsustainable and, I think as a mother of three, immoral debt.    Now with these new revelations, and frankly, that is what we are here to discuss, Mr. Chairman, these revelations produced by this committee, it is clear that the Administration manufactured and hyped up the crisis in order to prevent, I think, Republicans and Congress, who are committed to slashing our debt, from enacting smart and responsible fiscal policy.    Knowing now that the Administration was capable of prioritizing debt payments and actually running tabletop exercises after reaching the debt limit, do you find the Administration's statements to the contrary disingenuous, Ms. de Rugy?    Ms. de Rugy. It is politics, so I guess I am not surprised.</t>
   </si>
   <si>
@@ -367,6 +421,12 @@
     <t>412405</t>
   </si>
   <si>
+    <t>Tipton</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman.    And I thank our panel for taking the time to be here.    Ms. Boccia, you just mentioned a game of chicken that the Administration was playing. Did that impact our markets?</t>
   </si>
   <si>
@@ -436,6 +496,12 @@
     <t>412633</t>
   </si>
   <si>
+    <t>Poliquin</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Poliquin. Thank you, Mr. Chairman; I appreciate it very much.    And thank you all for being here today.    Before I entered Congress a year ago, I was the State treasurer in Maine and a small-business owner. I still am a small-business owner. And one of the things that we learned, those of us who are business owners is: number one, live within your means; and number two, be very, very careful with debt.    Now, I will tell you, one of the things that we learned, Mr. Chairman, back in Maine when I was State treasurer, we actually had a debt clock that was unwinding. I come in here every hearing and I look at that $19 trillion continuing to spool up and it makes me sick to my stomach. It makes me sick to my stomach because there aren't enough people, frankly, on the other side of the aisle who have the guts to deal with this. They talk about it, but all they want is bigger government, more spending, and more debt, which results in higher taxes. And they, of course, want more regulations and higher energy costs, and that kills jobs.    And it kills jobs, that is important, because if our folks don't have jobs, then they don't pay taxes, they are more dependent on the government, and we don't have the cash flow to meet our obligations.    Now, the reason we were able to unwind our debt clock in Maine during 2011, 2012 is because we attacked a fundamental issue dealing with the debt, which is our unfunded pension liability, public pension fund. We looked it in the eye, we were serious about it, we engaged all stakeholders and we reduced 41 percent of that pension debt, which caused the debt clock to unwind.    Now, we have the same problem here, Mr. Chairman. We have a $15 trillion unfunded defined benefit pension plan called Social Security. Now, we all know in this room and the folks who are listening, two-thirds of our budget is on autopilot in four programs: Medicare; Medicaid; Social Security; and interest on the debt, which isn't a program, but it continues to grow.    When are we going to have a serious conversation with the kids in this country, 25- and 30-year-old folks to say, if you want these programs that are growing a lot faster than our tax revenues, we need to make some changes? We know what to do; it is simple math.    Now, I am not talking about our seniors, Mr. Chairman, who have paid into these programs their whole lives and are depending on these programs. No change for them. But we have millennials, and there are a lot of them, a lot more than the baby boomers, and we can fix this.    So that is one of the reasons, Mr. Chairman, why I support, and I know you do, too, and those on this side of the aisle do, a balanced budget amendment of the Constitution. My second day here, when I was still trying to find out where the men's room was. I cosponsored that bill. I think it would be the greatest institutional tool that Washington could have. Force Washington to live within its means so we can start paying down our debt.    Now, Mr. Chairman, when we have Mr. Lew coming in here, the Secretary of the Treasury, telling us, well, the debt is no big deal, it is only 3, 4 percent of the GDP, we have talked about it today, you have, Mr. Chairman, thank you, the interest payments on that debt are now twice what we spend on veterans' benefits in a year. They are projected to exceed what we spend to defend our country in 8 years. It is a big deal.    Now, I would say also, Mr. Chairman, that 4 years ago the annual budget deficit was $1.3 trillion, and it is now $440 billion. We have a long way to go, but it has been cut in two-thirds, not because some folks don't want to spend more, but because Republicans are trying to be fiscally disciplined and have spending caps in place.    So my question to you, Mr. Mitchell, is--you have been around this town a lot longer than I have--do you think we have enough people in Congress who have the guts to address our spending problem, who will allow us to start whittling away at that $19 trillion debt that is chewing up our budget and putting a yoke around our kids' necks, that they are going to be saddled with, that creates a tremendous dark cloud above our economy and kills jobs and kills the kids of our future? What do you think?</t>
   </si>
   <si>
@@ -472,6 +538,12 @@
     <t>412609</t>
   </si>
   <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hill. Thank you, Mr. Chairman.    And I thank the panel for being with us. It's good to see my old friend, Dan Mitchell.    I am reminded by listening to this discussion, and from my friend Mr. Heck, as a 30-year banker and business guy, of the woman who comes into the bank branch and says, ``I can't be overdrawn in my account.'' And the bank manager says, ``But you are.'' And she says, ``I can't be; I still have checks.''    No laughter, oh well. Banking jokes just don't go over like they used to.    [laughter]    Thank you. Thank you to the gentleman from South Carolina.    As a former Treasury official, it really saddens me to read comments from the New York Fed which say that the Treasury's position is crazy, counterproductive, and is adding risk to the system. And that my friend, former Treasury official, now a Governor of the Federal Reserve System, Jay Powell, says that Treasury is politicizing important fiscal policy.    I think we should all be shocked by that, Democrats and Republicans, because there is no room for that in the proper governance of our country. And it goes absolutely against everything Hamilton put in place back in his report on the public debt, 1790.    I am interested in some quick responses and then I have a couple of questions. Does everybody here--and I am interested because I have kind of gotten a couple of different feelings--support the fact that we have a debt limit and it comes up and we debate it? Just raise your hands if you support the existing debt limit statute, effectively. Okay, three yes and one no.    And do you all support Congressman McClintock's bill that we passed in the House last year? If you would raise your hands on that?</t>
   </si>
   <si>
@@ -521,6 +593,12 @@
   </si>
   <si>
     <t>412474</t>
+  </si>
+  <si>
+    <t>Mulvaney</t>
+  </si>
+  <si>
+    <t>Mick</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Mulvaney. Mr. Stone, in your report you cite a GAO report which says, regarding the debt ceiling crisis in 2011, ``When the Treasury was close to breaching the debt limit, investors reported taking the unprecedented action of systematically avoiding certain Treasury securities. That cost from the Treasury from, roughly, $38 million to more than $70 million in higher interest costs, amounting to, in essence, nothing more than a waste of taxpayers' money.''    I take it that was because of the uncertainty in the markets. That is why interest rates go up, or that is one of the reasons that they do.    If the Treasury had information at that time that could have calmed the markets by letting the markets know that we would have paid principal and interest, do you think they should have revealed it?    Let me put it this way, if they had revealed it, would it have calmed the markets?</t>
@@ -971,7 +1049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:I182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,7 +1057,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,4349 +1079,5117 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
       <c r="H20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G64" t="s">
+        <v>90</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G66" t="s">
+        <v>90</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G69" t="s">
+        <v>90</v>
+      </c>
       <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G70" t="s">
+        <v>90</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>54</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="G74" t="s">
+        <v>90</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G76" t="s">
+        <v>105</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G84" t="s">
+        <v>105</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G86" t="s">
+        <v>105</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G88" t="s">
+        <v>120</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G89" t="s">
+        <v>120</v>
+      </c>
       <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G90" t="s">
+        <v>120</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G92" t="s">
+        <v>120</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G94" t="s">
+        <v>120</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G96" t="s">
+        <v>120</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="G98" t="s">
+        <v>120</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>116</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G100" t="s">
+        <v>135</v>
+      </c>
       <c r="H100" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>116</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G102" t="s">
+        <v>135</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G104" t="s">
+        <v>135</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>54</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G106" t="s">
+        <v>135</v>
+      </c>
       <c r="H106" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>54</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G108" t="s">
+        <v>135</v>
+      </c>
       <c r="H108" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>54</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>116</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G110" t="s">
+        <v>135</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>54</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>116</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G112" t="s">
+        <v>135</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>54</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>116</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G114" t="s">
+        <v>135</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>116</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G116" t="s">
+        <v>135</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I116" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>48</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>116</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G118" t="s">
+        <v>135</v>
+      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>48</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>116</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="G120" t="s">
+        <v>135</v>
+      </c>
       <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>136</v>
+      </c>
+      <c r="I120" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>139</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G122" t="s">
+        <v>160</v>
+      </c>
       <c r="H122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>48</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>48</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>54</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>139</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G126" t="s">
+        <v>160</v>
+      </c>
       <c r="H126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>54</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>139</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G128" t="s">
+        <v>160</v>
+      </c>
       <c r="H128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>54</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>139</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="G131" t="s">
+        <v>160</v>
+      </c>
       <c r="H131" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="I131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>151</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G133" t="s">
+        <v>174</v>
+      </c>
       <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I133" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>45</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G135" t="s">
+        <v>174</v>
+      </c>
       <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I135" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>151</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G136" t="s">
+        <v>174</v>
+      </c>
       <c r="H136" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I136" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>151</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G137" t="s">
+        <v>174</v>
+      </c>
       <c r="H137" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I137" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>48</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>151</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G139" t="s">
+        <v>174</v>
+      </c>
       <c r="H139" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I139" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>48</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>151</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G141" t="s">
+        <v>174</v>
+      </c>
       <c r="H141" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>25</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
+        <v>31</v>
+      </c>
       <c r="H143" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I143" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>54</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>25</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G145" t="s">
+        <v>31</v>
+      </c>
       <c r="H145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>54</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>25</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
       <c r="H147" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I147" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>168</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G149" t="s">
+        <v>193</v>
+      </c>
       <c r="H149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>54</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>168</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G151" t="s">
+        <v>193</v>
+      </c>
       <c r="H151" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I151" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>54</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>168</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G153" t="s">
+        <v>193</v>
+      </c>
       <c r="H153" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>54</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>168</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G155" t="s">
+        <v>193</v>
+      </c>
       <c r="H155" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>54</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>168</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G157" t="s">
+        <v>193</v>
+      </c>
       <c r="H157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I157" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>54</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>168</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G159" t="s">
+        <v>193</v>
+      </c>
       <c r="H159" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>54</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>168</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G161" t="s">
+        <v>193</v>
+      </c>
       <c r="H161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I161" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>54</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>168</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G163" t="s">
+        <v>193</v>
+      </c>
       <c r="H163" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I163" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>54</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>168</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G165" t="s">
+        <v>193</v>
+      </c>
       <c r="H165" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I165" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>54</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>168</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G167" t="s">
+        <v>193</v>
+      </c>
       <c r="H167" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I167" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>54</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>168</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G169" t="s">
+        <v>193</v>
+      </c>
       <c r="H169" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I169" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G170" t="s">
+        <v>54</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>168</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G171" t="s">
+        <v>193</v>
+      </c>
       <c r="H171" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I171" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>54</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>168</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G173" t="s">
+        <v>193</v>
+      </c>
       <c r="H173" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I173" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>168</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G175" t="s">
+        <v>193</v>
+      </c>
       <c r="H175" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I175" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G176" t="s">
+        <v>54</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>168</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G177" t="s">
+        <v>193</v>
+      </c>
       <c r="H177" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I177" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G178" t="s">
+        <v>54</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>168</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G179" t="s">
+        <v>193</v>
+      </c>
       <c r="H179" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I179" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G180" t="s">
+        <v>54</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>168</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>192</v>
+      </c>
+      <c r="G181" t="s">
+        <v>193</v>
+      </c>
       <c r="H181" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>194</v>
+      </c>
+      <c r="I181" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>11</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
       <c r="H182" t="s">
-        <v>202</v>
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23564.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23564.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412488</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Duffy</t>
@@ -1049,7 +1055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I182"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,7 +1063,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,5114 +1088,5520 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>48</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G68" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>54</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>48</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>54</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>54</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>54</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G86" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G88" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G89" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I89" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G90" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J90" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s">
-        <v>45</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>45</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G94" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J94" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>45</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G96" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I96" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>48</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>50</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G98" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>123</v>
+      </c>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G100" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>45</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G102" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>45</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G104" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I104" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>54</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>56</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G106" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>54</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>56</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G108" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>54</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>56</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G110" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>54</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>56</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G112" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>54</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>56</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G114" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I114" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>45</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G116" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I116" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s">
-        <v>48</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>50</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G118" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I118" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s">
-        <v>48</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>50</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G120" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I120" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G122" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I122" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>48</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>50</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>48</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>50</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>54</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>56</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G126" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s">
-        <v>54</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>56</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G128" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I128" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>54</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>56</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G131" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I131" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J131" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G133" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I133" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>45</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>47</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G135" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I135" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G136" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I136" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G137" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I137" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J137" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>48</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>50</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G139" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I139" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J139" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>48</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>50</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G141" t="s">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I141" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>177</v>
+      </c>
+      <c r="J141" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J143" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>54</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>56</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I145" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J145" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>54</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>56</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I147" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J147" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G149" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I149" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>54</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>56</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G151" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I151" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J151" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>54</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>56</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G153" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I153" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J153" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s">
-        <v>54</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>56</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G155" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I155" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J155" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s">
-        <v>54</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>56</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G157" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I157" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J157" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s">
-        <v>54</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>56</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G159" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I159" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J159" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s">
-        <v>54</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>56</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G161" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I161" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J161" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s">
-        <v>54</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>56</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G163" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I163" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J163" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s">
-        <v>54</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>56</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G165" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I165" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J165" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s">
-        <v>54</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>56</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G167" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I167" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J167" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s">
-        <v>54</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>56</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G169" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I169" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J169" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-      <c r="G170" t="s">
-        <v>54</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>56</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G171" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I171" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J171" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
-      </c>
-      <c r="G172" t="s">
-        <v>54</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>56</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G173" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I173" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-      <c r="G174" t="s">
-        <v>54</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>56</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G175" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I175" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
-      </c>
-      <c r="G176" t="s">
-        <v>54</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>56</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G177" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H177" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I177" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J177" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
-      </c>
-      <c r="G178" t="s">
-        <v>54</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>56</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G179" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I179" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
-      </c>
-      <c r="G180" t="s">
-        <v>54</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>56</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G181" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I181" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>196</v>
+      </c>
+      <c r="J181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I182" t="s">
-        <v>228</v>
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
